--- a/MyDashApp/NaturalGasUndergroundStorage_BC_AB.xlsx
+++ b/MyDashApp/NaturalGasUndergroundStorage_BC_AB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewv\OneDrive - University of Calgary\Drew_HardDrive\Documents\Repositories\Natural_Gas_Projects\ShapeFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewv\OneDrive - University of Calgary\Drew_HardDrive\Documents\Repositories\Natural_Gas_Projects\MyDashApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CB7A3F-DB45-4B97-9229-B54FC0A80CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4705E2-C069-44D7-818F-7BCCEC699756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,12 +19,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">NaturalGasUndergroundStorage!$A$1:$V$449</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5576" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5576" uniqueCount="1061">
   <si>
     <t>Country</t>
   </si>
@@ -3204,12 +3217,18 @@
   </si>
   <si>
     <t>Tyonek 773</t>
+  </si>
+  <si>
+    <t>Working Gas Capacity (BCF)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -3390,7 +3409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3414,6 +3433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3718,10 +3738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C2A3D8-8C23-4BA6-A940-0A4FD313866C}">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3791,7 +3811,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>13</v>
+        <v>1060</v>
       </c>
       <c r="O1" s="15" t="s">
         <v>14</v>
@@ -3858,8 +3878,8 @@
       <c r="M2" s="13">
         <v>0</v>
       </c>
-      <c r="N2" s="14">
-        <v>94537</v>
+      <c r="N2" s="23">
+        <v>94.537000000000006</v>
       </c>
       <c r="O2" s="15">
         <v>0</v>
@@ -3926,8 +3946,8 @@
       <c r="M3" s="13">
         <v>0</v>
       </c>
-      <c r="N3" s="14">
-        <v>83943</v>
+      <c r="N3" s="23">
+        <v>83.942999999999998</v>
       </c>
       <c r="O3" s="15">
         <v>0</v>
@@ -3994,8 +4014,8 @@
       <c r="M4" s="13">
         <v>0</v>
       </c>
-      <c r="N4" s="14">
-        <v>62684</v>
+      <c r="N4" s="23">
+        <v>62.683999999999997</v>
       </c>
       <c r="O4" s="15">
         <v>0</v>
@@ -4062,8 +4082,8 @@
       <c r="M5" s="13">
         <v>0</v>
       </c>
-      <c r="N5" s="14">
-        <v>9959</v>
+      <c r="N5" s="23">
+        <v>9.9589999999999996</v>
       </c>
       <c r="O5" s="15">
         <v>0</v>
@@ -4130,8 +4150,8 @@
       <c r="M6" s="13">
         <v>0</v>
       </c>
-      <c r="N6" s="14">
-        <v>34820</v>
+      <c r="N6" s="23">
+        <v>34.82</v>
       </c>
       <c r="O6" s="15">
         <v>0</v>
@@ -4198,8 +4218,8 @@
       <c r="M7" s="13">
         <v>0</v>
       </c>
-      <c r="N7" s="14">
-        <v>33196</v>
+      <c r="N7" s="23">
+        <v>33.195999999999998</v>
       </c>
       <c r="O7" s="15">
         <v>0</v>
@@ -4266,8 +4286,8 @@
       <c r="M8" s="13">
         <v>0</v>
       </c>
-      <c r="N8" s="14">
-        <v>42272</v>
+      <c r="N8" s="23">
+        <v>42.271999999999998</v>
       </c>
       <c r="O8" s="15">
         <v>0</v>
@@ -4334,8 +4354,8 @@
       <c r="M9" s="13">
         <v>0</v>
       </c>
-      <c r="N9" s="14">
-        <v>41230</v>
+      <c r="N9" s="23">
+        <v>41.23</v>
       </c>
       <c r="O9" s="15">
         <v>0</v>
@@ -4402,8 +4422,8 @@
       <c r="M10" s="13">
         <v>0</v>
       </c>
-      <c r="N10" s="14">
-        <v>14938</v>
+      <c r="N10" s="23">
+        <v>14.938000000000001</v>
       </c>
       <c r="O10" s="15">
         <v>0</v>
@@ -4470,8 +4490,8 @@
       <c r="M11" s="13">
         <v>0</v>
       </c>
-      <c r="N11" s="14">
-        <v>39800</v>
+      <c r="N11" s="23">
+        <v>39.799999999999997</v>
       </c>
       <c r="O11" s="15">
         <v>0</v>
@@ -4538,8 +4558,8 @@
       <c r="M12" s="13">
         <v>0</v>
       </c>
-      <c r="N12" s="14">
-        <v>70500</v>
+      <c r="N12" s="23">
+        <v>70.5</v>
       </c>
       <c r="O12" s="15">
         <v>0</v>
@@ -4606,8 +4626,8 @@
       <c r="M13" s="13">
         <v>0</v>
       </c>
-      <c r="N13" s="14">
-        <v>31112</v>
+      <c r="N13" s="23">
+        <v>31.111999999999998</v>
       </c>
       <c r="O13" s="15">
         <v>0</v>
@@ -4674,8 +4694,8 @@
       <c r="M14" s="13">
         <v>0</v>
       </c>
-      <c r="N14" s="14">
-        <v>83500</v>
+      <c r="N14" s="23">
+        <v>83.5</v>
       </c>
       <c r="O14" s="15">
         <v>0</v>
@@ -4701,6 +4721,48 @@
       <c r="V14" s="22">
         <v>51000</v>
       </c>
+    </row>
+    <row r="18" spans="14:14">
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="14:14">
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="14:14">
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="14:14">
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="14:14">
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="14:14">
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="14:14">
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="14:14">
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" spans="14:14">
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="14:14">
+      <c r="N27" s="14"/>
+    </row>
+    <row r="28" spans="14:14">
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29" spans="14:14">
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="14:14">
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="14:14">
+      <c r="N31" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
